--- a/src/test/java/CapstoneOrangeHrm/OrangeHrm.xlsx
+++ b/src/test/java/CapstoneOrangeHrm/OrangeHrm.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagar\eclipse-workspace\.metadata_backup\Capstone_2025\src\test\java\CapstoneOrangeHrm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723CD0D-84B3-42CB-800E-7D2C6D2E36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BAAD11-70B7-4A92-81EB-09820E064A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRM" sheetId="1" r:id="rId1"/>
     <sheet name="HRM2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hrm3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -466,7 +467,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,4 +532,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D999C-F316-440C-91E1-BD7668E889EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>